--- a/datamining/final_data/topic4_candidates.xlsx
+++ b/datamining/final_data/topic4_candidates.xlsx
@@ -436,107 +436,107 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.18608</v>
+        <v>1.245154833333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.16638</v>
+        <v>1.091400666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.53876</v>
+        <v>0.8760606666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.21014</v>
+        <v>0.8007281666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.11834</v>
+        <v>0.7027733333333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.17457</v>
+        <v>0.6944361666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.49776</v>
+        <v>0.6514595000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.19974</v>
+        <v>0.6312078333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06610000000000001</v>
+        <v>0.584618</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.16255</v>
+        <v>0.5581141666666667</v>
       </c>
     </row>
     <row r="12">
@@ -546,27 +546,27 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.62722</v>
+        <v>0.528842</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09415999999999999</v>
+        <v>0.5287256666666666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.23841</v>
+        <v>0.4983738333333333</v>
       </c>
     </row>
     <row r="15">
@@ -576,647 +576,647 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.57</v>
+        <v>0.454732</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.46832</v>
+        <v>0.424086</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.26224</v>
+        <v>0.4222783333333334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.17884</v>
+        <v>0.4199431666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.34615</v>
+        <v>0.4135333333333334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.19009</v>
+        <v>0.4092961666666666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.26911</v>
+        <v>0.4025448333333334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.21113</v>
+        <v>0.3898456666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.17325</v>
+        <v>0.3889431666666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.12965</v>
+        <v>0.3709191666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1599</v>
+        <v>0.3615349999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.47775</v>
+        <v>0.3498036666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7239100000000001</v>
+        <v>0.3492636666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.08863</v>
+        <v>0.3460668333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.11339</v>
+        <v>0.3313853333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.589</v>
+        <v>0.3217581666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.12945</v>
+        <v>0.313603</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.40126</v>
+        <v>0.3121085</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.88637</v>
+        <v>0.2998945</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.16499</v>
+        <v>0.294747</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.33773</v>
+        <v>0.284582</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.23791</v>
+        <v>0.2817486666666666</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0356</v>
+        <v>0.2761081666666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.13774</v>
+        <v>0.2704978333333334</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.15911</v>
+        <v>0.2631653333333334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.21624</v>
+        <v>0.2504815</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.08506</v>
+        <v>0.2492425</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.25395</v>
+        <v>0.2463313333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9492</v>
+        <v>0.2395623333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.22692</v>
+        <v>0.2254301666666666</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.50675</v>
+        <v>0.2194173333333334</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.42635</v>
+        <v>0.2168753333333333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.77602</v>
+        <v>0.215098</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.11957</v>
+        <v>0.2132055</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.06705</v>
+        <v>0.2052495</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.19327</v>
+        <v>0.193872</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.09304</v>
+        <v>0.1809956666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.27538</v>
+        <v>0.1787738333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.31805</v>
+        <v>0.1765273333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.41894</v>
+        <v>0.1763345</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.10547</v>
+        <v>0.1738421666666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.43215</v>
+        <v>0.1667681666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.66307</v>
+        <v>0.165601</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.58617</v>
+        <v>0.1637258333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.67525</v>
+        <v>0.1627966666666666</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1272</v>
+        <v>0.1626573333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.46574</v>
+        <v>0.1613736666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.40359</v>
+        <v>0.1517855</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.43011</v>
+        <v>0.1500566666666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.10075</v>
+        <v>0.1480356666666666</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.19263</v>
+        <v>0.1442848333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.13385</v>
+        <v>0.1438221666666666</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.20872</v>
+        <v>0.142214</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.05013</v>
+        <v>0.1402321666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.33346</v>
+        <v>0.1366455</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.25723</v>
+        <v>0.1353385</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01793</v>
+        <v>0.1335738333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.18603</v>
+        <v>0.1303945</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.50281</v>
+        <v>0.1280753333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.25414</v>
+        <v>0.1276316666666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.18115</v>
+        <v>0.122568</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.14134</v>
+        <v>0.1177411666666667</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.16947</v>
+        <v>0.1159161666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.09828000000000001</v>
+        <v>0.1114158333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.37813</v>
+        <v>0.1089091666666667</v>
       </c>
     </row>
     <row r="80">
@@ -1226,217 +1226,217 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.17603</v>
+        <v>0.1082598333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.16124</v>
+        <v>0.105018</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.36307</v>
+        <v>0.1044273333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.17034</v>
+        <v>0.09871299999999998</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.33896</v>
+        <v>0.09670433333333334</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.27172</v>
+        <v>0.09543833333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.4938</v>
+        <v>0.09116433333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.22794</v>
+        <v>0.08929599999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.49514</v>
+        <v>0.07667950000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.07523000000000001</v>
+        <v>0.07532966666666667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.38084</v>
+        <v>0.07470883333333334</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.37786</v>
+        <v>0.07226500000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.22242</v>
+        <v>0.06947766666666666</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.32624</v>
+        <v>0.06815266666666667</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.78332</v>
+        <v>0.06357633333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.16028</v>
+        <v>0.058353</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.7212499999999999</v>
+        <v>0.05082183333333334</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.33036</v>
+        <v>0.04763816666666666</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.3592</v>
+        <v>0.04669266666666665</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.3536</v>
+        <v>0.03047566666666666</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.24911</v>
+        <v>0.0273845</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.35568</v>
+        <v>-0.004271999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic4_candidates.xlsx
+++ b/datamining/final_data/topic4_candidates.xlsx
@@ -442,7 +442,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -452,991 +452,991 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.091400666666667</v>
+        <v>1.112842166666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8760606666666667</v>
+        <v>1.091400666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8007281666666667</v>
+        <v>1.091400666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7027733333333334</v>
+        <v>1.016904666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6944361666666667</v>
+        <v>0.6748915</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6514595000000001</v>
+        <v>0.6684306666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('찾', '을', '수')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6312078333333333</v>
+        <v>0.642983</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('ㄴ', '기초', '자료')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.584618</v>
+        <v>0.6311125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5581141666666667</v>
+        <v>0.6211881666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('는', '데', '있')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.528842</v>
+        <v>0.6124499999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('는', '영향', '분석')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5287256666666666</v>
+        <v>0.5923640000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('다는', '점', '의의')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4983738333333333</v>
+        <v>0.5367751666666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.454732</v>
+        <v>0.5349035</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.424086</v>
+        <v>0.5292129999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4222783333333334</v>
+        <v>0.5262236666666668</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4199431666666667</v>
+        <v>0.498999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4135333333333334</v>
+        <v>0.4962131666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4092961666666666</v>
+        <v>0.4861031666666668</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4025448333333334</v>
+        <v>0.4831480000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3898456666666667</v>
+        <v>0.4712756666666666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('것', '알', 'ㄹ')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3889431666666666</v>
+        <v>0.461611</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('향상', '긍정', 'ㄴ')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3709191666666667</v>
+        <v>0.4577983333333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('기술', '의', '발달')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3615349999999999</v>
+        <v>0.4414173333333334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3498036666666667</v>
+        <v>0.4346668333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3492636666666667</v>
+        <v>0.4245756666666666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3460668333333333</v>
+        <v>0.4229156666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3313853333333333</v>
+        <v>0.4168020000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3217581666666667</v>
+        <v>0.4030423333333334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.313603</v>
+        <v>0.4020195</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3121085</v>
+        <v>0.400396</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('이', '같', '은')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2998945</v>
+        <v>0.3890606666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('중', '의', '하나')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.294747</v>
+        <v>0.3750005</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.284582</v>
+        <v>0.3696291666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2817486666666666</v>
+        <v>0.3644203333333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2761081666666667</v>
+        <v>0.3633065</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2704978333333334</v>
+        <v>0.361478</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2631653333333334</v>
+        <v>0.3138546666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2504815</v>
+        <v>0.2907751666666666</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2492425</v>
+        <v>0.2856016666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2463313333333333</v>
+        <v>0.2843798333333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2395623333333333</v>
+        <v>0.2763141666666666</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('수준', '맞', '는')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2254301666666666</v>
+        <v>0.2666246666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('초점', '맞추', 'ㄴ')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2194173333333334</v>
+        <v>0.2628598333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2168753333333333</v>
+        <v>0.2562075</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.215098</v>
+        <v>0.2410911666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2132055</v>
+        <v>0.2384761666666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2052495</v>
+        <v>0.23717</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.193872</v>
+        <v>0.2370448333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('예비', '교원', '의')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1809956666666667</v>
+        <v>0.2209531666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1787738333333333</v>
+        <v>0.218538</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1765273333333333</v>
+        <v>0.2160516666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1763345</v>
+        <v>0.209968</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1738421666666667</v>
+        <v>0.209412</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1667681666666667</v>
+        <v>0.206809</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.165601</v>
+        <v>0.204307</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1637258333333333</v>
+        <v>0.1962793333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1627966666666666</v>
+        <v>0.1877796666666667</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1626573333333333</v>
+        <v>0.184155</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1613736666666667</v>
+        <v>0.1815836666666666</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1517855</v>
+        <v>0.1754701666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1500566666666667</v>
+        <v>0.1749551666666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1480356666666666</v>
+        <v>0.1708353333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1442848333333333</v>
+        <v>0.1681605</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('의', '자기', '주도')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1438221666666666</v>
+        <v>0.1659145</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.142214</v>
+        <v>0.1639543333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1402321666666667</v>
+        <v>0.1610086666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1366455</v>
+        <v>0.156452</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1353385</v>
+        <v>0.156087</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1335738333333333</v>
+        <v>0.150264</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1303945</v>
+        <v>0.1460131666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1280753333333333</v>
+        <v>0.1442828333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1276316666666667</v>
+        <v>0.1392783333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.122568</v>
+        <v>0.1383738333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1177411666666667</v>
+        <v>0.1366455</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1159161666666667</v>
+        <v>0.1355176666666666</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1114158333333333</v>
+        <v>0.133321</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1089091666666667</v>
+        <v>0.1291583333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1082598333333333</v>
+        <v>0.1291185</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.105018</v>
+        <v>0.1223025</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1044273333333333</v>
+        <v>0.1180538333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09871299999999998</v>
+        <v>0.1158128333333334</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('학습자', '중심', '의')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.09670433333333334</v>
+        <v>0.1140135</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.09543833333333333</v>
+        <v>0.1093483333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.09116433333333333</v>
+        <v>0.1016511666666667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.08929599999999999</v>
+        <v>0.1012118333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.07667950000000001</v>
+        <v>0.09561966666666666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.07532966666666667</v>
+        <v>0.0815085</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.07470883333333334</v>
+        <v>0.07689516666666667</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.07226500000000001</v>
+        <v>0.07470883333333334</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.06947766666666666</v>
+        <v>0.07074849999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.06815266666666667</v>
+        <v>0.06244933333333334</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.06357633333333333</v>
+        <v>0.06244933333333334</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.058353</v>
+        <v>0.05314216666666666</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.05082183333333334</v>
+        <v>0.0518315</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.04763816666666666</v>
+        <v>0.05084166666666667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.04669266666666665</v>
+        <v>0.05080083333333334</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.03047566666666666</v>
+        <v>0.0399155</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0273845</v>
+        <v>0.0328295</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.004271999999999998</v>
+        <v>0.006611666666666668</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic4_candidates.xlsx
+++ b/datamining/final_data/topic4_candidates.xlsx
@@ -492,81 +492,81 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6748915</v>
+        <v>0.8667385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6684306666666666</v>
+        <v>0.7463048333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.642983</v>
+        <v>0.6748915</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6311125</v>
+        <v>0.6748915</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6211881666666667</v>
+        <v>0.6522221666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6124499999999999</v>
+        <v>0.6211881666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5923640000000001</v>
+        <v>0.5847290000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5367751666666666</v>
+        <v>0.5807203333333333</v>
       </c>
     </row>
     <row r="15">
@@ -592,761 +592,761 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5262236666666668</v>
+        <v>0.498999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.498999</v>
+        <v>0.4861031666666668</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4962131666666666</v>
+        <v>0.4831480000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4861031666666668</v>
+        <v>0.4712756666666666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4831480000000001</v>
+        <v>0.449729</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4712756666666666</v>
+        <v>0.440374</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.461611</v>
+        <v>0.4346668333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4577983333333333</v>
+        <v>0.4326701666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4414173333333334</v>
+        <v>0.4245756666666666</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4346668333333333</v>
+        <v>0.4229156666666666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4245756666666666</v>
+        <v>0.4168020000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4229156666666666</v>
+        <v>0.4030423333333334</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성', '위하')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4168020000000001</v>
+        <v>0.4020195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4030423333333334</v>
+        <v>0.3864083333333334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4020195</v>
+        <v>0.3696291666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.400396</v>
+        <v>0.3633065</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3890606666666667</v>
+        <v>0.361478</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3750005</v>
+        <v>0.327387</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3696291666666667</v>
+        <v>0.315536</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3644203333333333</v>
+        <v>0.3138546666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3633065</v>
+        <v>0.3131806666666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.361478</v>
+        <v>0.2955735</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3138546666666667</v>
+        <v>0.2883425</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2907751666666666</v>
+        <v>0.2856016666666666</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2856016666666666</v>
+        <v>0.2696771666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2843798333333333</v>
+        <v>0.2654865</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2763141666666666</v>
+        <v>0.2562075</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2666246666666667</v>
+        <v>0.2384761666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2628598333333333</v>
+        <v>0.2370448333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2562075</v>
+        <v>0.2218843333333334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2410911666666667</v>
+        <v>0.218538</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2384761666666667</v>
+        <v>0.209968</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.23717</v>
+        <v>0.2080268333333334</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2370448333333333</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2209531666666667</v>
+        <v>0.204307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.218538</v>
+        <v>0.1962793333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2160516666666667</v>
+        <v>0.1815836666666666</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.209968</v>
+        <v>0.1754701666666667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.209412</v>
+        <v>0.1749551666666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.206809</v>
+        <v>0.1708353333333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.204307</v>
+        <v>0.1681605</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1962793333333333</v>
+        <v>0.1639543333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1877796666666667</v>
+        <v>0.1613108333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.184155</v>
+        <v>0.1610086666666667</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1815836666666666</v>
+        <v>0.156452</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1754701666666667</v>
+        <v>0.156087</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1749551666666667</v>
+        <v>0.156087</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1708353333333333</v>
+        <v>0.150264</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1681605</v>
+        <v>0.1460131666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1659145</v>
+        <v>0.1442828333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1639543333333333</v>
+        <v>0.1404031666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1610086666666667</v>
+        <v>0.1392783333333333</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.156452</v>
+        <v>0.1385816666666667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.156087</v>
+        <v>0.1366455</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.150264</v>
+        <v>0.1355176666666666</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1460131666666667</v>
+        <v>0.133321</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1442828333333333</v>
+        <v>0.1291583333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1392783333333333</v>
+        <v>0.1291185</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1383738333333333</v>
+        <v>0.1223025</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1366455</v>
+        <v>0.1196683333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1355176666666666</v>
+        <v>0.1180538333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.133321</v>
+        <v>0.1158128333333334</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1291583333333333</v>
+        <v>0.107497</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('동영', '상')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1291185</v>
+        <v>0.1060075</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1223025</v>
+        <v>0.1012118333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1180538333333333</v>
+        <v>0.09591083333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1158128333333334</v>
+        <v>0.09561966666666666</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1140135</v>
+        <v>0.0815085</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1093483333333333</v>
+        <v>0.07981066666666667</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1016511666666667</v>
+        <v>0.07689516666666667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1012118333333333</v>
+        <v>0.07470883333333334</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.09561966666666666</v>
+        <v>0.07260033333333334</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0815085</v>
+        <v>0.07228616666666665</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.07689516666666667</v>
+        <v>0.07074849999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.07470883333333334</v>
+        <v>0.06969583333333335</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.07074849999999999</v>
+        <v>0.06244933333333334</v>
       </c>
     </row>
     <row r="93">
@@ -1362,51 +1362,51 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.06244933333333334</v>
+        <v>0.05314216666666666</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.05314216666666666</v>
+        <v>0.0518315</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0518315</v>
+        <v>0.05084166666666667</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.05084166666666667</v>
+        <v>0.05080083333333334</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.05080083333333334</v>
+        <v>0.049411</v>
       </c>
     </row>
     <row r="99">
@@ -1432,7 +1432,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B101" t="n">

--- a/datamining/final_data/topic4_candidates.xlsx
+++ b/datamining/final_data/topic4_candidates.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.245154833333333</v>
+        <v>1.219906041666667</v>
       </c>
     </row>
     <row r="3">
@@ -456,27 +456,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.112842166666667</v>
+        <v>1.086995208333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.091400666666667</v>
+        <v>1.064315833333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.091400666666667</v>
+        <v>1.064315833333333</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.016904666666667</v>
+        <v>0.9906033333333333</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8667385</v>
+        <v>0.8414406249999999</v>
       </c>
     </row>
     <row r="8">
@@ -506,27 +506,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7463048333333333</v>
+        <v>0.7267835416666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단', '통제')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6748915</v>
+        <v>0.651176875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6748915</v>
+        <v>0.651176875</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6522221666666667</v>
+        <v>0.6312277083333333</v>
       </c>
     </row>
     <row r="12">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6211881666666667</v>
+        <v>0.5948377083333333</v>
       </c>
     </row>
     <row r="13">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5847290000000001</v>
+        <v>0.56547125</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5807203333333333</v>
+        <v>0.5577329166666667</v>
       </c>
     </row>
     <row r="15">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5349035</v>
+        <v>0.5140693750000001</v>
       </c>
     </row>
     <row r="16">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5292129999999999</v>
+        <v>0.50454625</v>
       </c>
     </row>
     <row r="17">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.498999</v>
+        <v>0.4743087499999999</v>
       </c>
     </row>
     <row r="18">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4861031666666668</v>
+        <v>0.4616214583333334</v>
       </c>
     </row>
     <row r="19">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4831480000000001</v>
+        <v>0.4525300000000001</v>
       </c>
     </row>
     <row r="20">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4712756666666666</v>
+        <v>0.4453645833333333</v>
       </c>
     </row>
     <row r="21">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.449729</v>
+        <v>0.42564875</v>
       </c>
     </row>
     <row r="22">
@@ -646,27 +646,27 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.440374</v>
+        <v>0.4196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4346668333333333</v>
+        <v>0.4125327083333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('학년', '학생', '명')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4326701666666667</v>
+        <v>0.4046160416666666</v>
       </c>
     </row>
     <row r="25">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4245756666666666</v>
+        <v>0.4026495833333333</v>
       </c>
     </row>
     <row r="26">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4229156666666666</v>
+        <v>0.3936770833333333</v>
       </c>
     </row>
     <row r="27">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4168020000000001</v>
+        <v>0.3889675</v>
       </c>
     </row>
     <row r="28">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4030423333333334</v>
+        <v>0.3791429166666667</v>
       </c>
     </row>
     <row r="29">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4020195</v>
+        <v>0.372309375</v>
       </c>
     </row>
     <row r="30">
@@ -726,37 +726,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3864083333333334</v>
+        <v>0.3616554166666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3696291666666667</v>
+        <v>0.3458025</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('대하', '관심', '높')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3633065</v>
+        <v>0.3455739583333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.361478</v>
+        <v>0.337078125</v>
       </c>
     </row>
     <row r="34">
@@ -766,27 +766,27 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.327387</v>
+        <v>0.32062625</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.315536</v>
+        <v>0.2993083333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3138546666666667</v>
+        <v>0.2956825</v>
       </c>
     </row>
     <row r="37">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3131806666666667</v>
+        <v>0.2870508333333334</v>
       </c>
     </row>
     <row r="38">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2955735</v>
+        <v>0.287041875</v>
       </c>
     </row>
     <row r="39">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2883425</v>
+        <v>0.272185625</v>
       </c>
     </row>
     <row r="40">
@@ -826,27 +826,27 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2856016666666666</v>
+        <v>0.2636970833333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', '수')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2696771666666666</v>
+        <v>0.257188125</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2654865</v>
+        <v>0.2474714583333333</v>
       </c>
     </row>
     <row r="43">
@@ -856,57 +856,57 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2562075</v>
+        <v>0.243441875</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2384761666666667</v>
+        <v>0.2301260416666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2370448333333333</v>
+        <v>0.2269102083333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('간', '상호', '작용')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2218843333333334</v>
+        <v>0.2152375</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.218538</v>
+        <v>0.201745</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.209968</v>
+        <v>0.1987979166666667</v>
       </c>
     </row>
     <row r="49">
@@ -916,27 +916,27 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2080268333333334</v>
+        <v>0.1958060416666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.207252</v>
+        <v>0.19180125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.204307</v>
+        <v>0.185845</v>
       </c>
     </row>
     <row r="52">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1962793333333333</v>
+        <v>0.1809866666666667</v>
       </c>
     </row>
     <row r="53">
@@ -956,27 +956,27 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1815836666666666</v>
+        <v>0.1671120833333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1754701666666667</v>
+        <v>0.1655839583333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1749551666666667</v>
+        <v>0.1638652083333333</v>
       </c>
     </row>
     <row r="56">
@@ -986,17 +986,17 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1708353333333333</v>
+        <v>0.1591966666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1681605</v>
+        <v>0.1528710416666667</v>
       </c>
     </row>
     <row r="58">
@@ -1006,37 +1006,37 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1639543333333333</v>
+        <v>0.1522954166666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독', '치료')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1613108333333333</v>
+        <v>0.1517433333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1610086666666667</v>
+        <v>0.150568125</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.156452</v>
+        <v>0.14986375</v>
       </c>
     </row>
     <row r="62">
@@ -1046,117 +1046,117 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.156087</v>
+        <v>0.14986375</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.156087</v>
+        <v>0.1497225</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.150264</v>
+        <v>0.1367085416666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1460131666666667</v>
+        <v>0.1353425</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1442828333333333</v>
+        <v>0.1346254166666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('방법', '평가', '방법')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1404031666666667</v>
+        <v>0.1338139583333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1392783333333333</v>
+        <v>0.129211875</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1385816666666667</v>
+        <v>0.12873375</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1366455</v>
+        <v>0.1254114583333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1355176666666666</v>
+        <v>0.1230720833333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.133321</v>
+        <v>0.1210329166666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각', '교육')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1291583333333333</v>
+        <v>0.1185070833333333</v>
       </c>
     </row>
     <row r="74">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1291185</v>
+        <v>0.112630625</v>
       </c>
     </row>
     <row r="75">
@@ -1176,17 +1176,17 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1223025</v>
+        <v>0.112180625</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1196683333333333</v>
+        <v>0.1094260416666667</v>
       </c>
     </row>
     <row r="77">
@@ -1196,27 +1196,27 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1180538333333333</v>
+        <v>0.1009097916666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1158128333333334</v>
+        <v>0.10083875</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.107497</v>
+        <v>0.1005854166666667</v>
       </c>
     </row>
     <row r="80">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1060075</v>
+        <v>0.097444375</v>
       </c>
     </row>
     <row r="81">
@@ -1236,27 +1236,27 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1012118333333333</v>
+        <v>0.09053479166666664</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.09591083333333333</v>
+        <v>0.08985708333333334</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09561966666666666</v>
+        <v>0.08369104166666666</v>
       </c>
     </row>
     <row r="84">
@@ -1266,147 +1266,147 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0815085</v>
+        <v>0.07620062499999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('전자', '책')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.07981066666666667</v>
+        <v>0.06984604166666666</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.07689516666666667</v>
+        <v>0.06893083333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.07470883333333334</v>
+        <v>0.06666291666666667</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '활용')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.07260033333333334</v>
+        <v>0.06532062499999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.07228616666666665</v>
+        <v>0.06486729166666667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('교사', '보조', '로봇')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.07074849999999999</v>
+        <v>0.06369520833333334</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신', '윤리')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.06969583333333335</v>
+        <v>0.05822895833333334</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.06244933333333334</v>
+        <v>0.04755187499999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.06244933333333334</v>
+        <v>0.04741770833333332</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.05314216666666666</v>
+        <v>0.04697604166666668</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0518315</v>
+        <v>0.04564375</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.05084166666666667</v>
+        <v>0.04497416666666668</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.05080083333333334</v>
+        <v>0.04497416666666668</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('정보', '과학', '영재')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.049411</v>
+        <v>0.03712458333333334</v>
       </c>
     </row>
     <row r="99">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0399155</v>
+        <v>0.031314375</v>
       </c>
     </row>
     <row r="100">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0328295</v>
+        <v>0.02202437500000001</v>
       </c>
     </row>
     <row r="101">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.006611666666666668</v>
+        <v>2.208333333333923e-05</v>
       </c>
     </row>
   </sheetData>
